--- a/exec/symlex_vpn_ windows/test_cases(app)/login/login-username_ field.xlsx
+++ b/exec/symlex_vpn_ windows/test_cases(app)/login/login-username_ field.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\exec\symlex_vpn_ windows\test_cases(app)\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C7FBB-B483-4F1F-86DC-1D484DCC7958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5F196F-B1FF-4200-B419-FA90E2CA5746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_username" sheetId="1" r:id="rId1"/>
+    <sheet name="datasheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -566,12 +567,101 @@
 5. enter static valid password in the password field and goto username field
 6. try to login after entering empty string in the username field</t>
   </si>
+  <si>
+    <t>S. no.</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>"abcdefghijklmnopqrstuvwxyz"</t>
+  </si>
+  <si>
+    <t>"john doe"</t>
+  </si>
+  <si>
+    <t>"user1234"</t>
+  </si>
+  <si>
+    <t>"user123\nuser456"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> " username_with_spaces "</t>
+  </si>
+  <si>
+    <t>"𝓼𝓪𝓶𝓹𝓵𝓮@𝓮𝔁𝓪𝓶𝓹𝓵𝓮.𝓬𝓸𝓶"</t>
+  </si>
+  <si>
+    <t>USERNAME123</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;alert('Vulnerability!')&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>"username"</t>
+  </si>
+  <si>
+    <t>"UsErNaMe"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "user.name123"</t>
+  </si>
+  <si>
+    <t>user@symlexvpn</t>
+  </si>
+  <si>
+    <t>"user@@example.com"</t>
+  </si>
+  <si>
+    <t>username123</t>
+  </si>
+  <si>
+    <t>testuser@example.com</t>
+  </si>
+  <si>
+    <t>.example@email.com</t>
+  </si>
+  <si>
+    <t>example.email.@example.com</t>
+  </si>
+  <si>
+    <t>user..name@example.com</t>
+  </si>
+  <si>
+    <t>test_email_address@example.com</t>
+  </si>
+  <si>
+    <t>"John Doe"</t>
+  </si>
+  <si>
+    <t>example@DOMAIN.COM</t>
+  </si>
+  <si>
+    <t>username@example123.com</t>
+  </si>
+  <si>
+    <t>user123@example123.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"-user@example.com"
+</t>
+  </si>
+  <si>
+    <t>example@example-.com</t>
+  </si>
+  <si>
+    <t>user@example--domain.com</t>
+  </si>
+  <si>
+    <t>user@example.com#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -616,8 +706,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,6 +743,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,10 +852,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -814,8 +931,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="56">
@@ -1684,9 +1832,9 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29800,4 +29948,310 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747E30DE-47AE-46E2-B41D-D2C3ACF5DB2A}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
+        <v>22</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="28">
+        <v>23</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="28">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>26</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="29"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="29">
+        <v>35</v>
+      </c>
+      <c r="B36" s="29"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{D6A326DE-3D65-460B-90EA-C6B824542BC3}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{169588B2-C711-4379-BB91-0D6D087081BE}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{EDE62BC9-3122-4A03-9DE5-356600F0FED4}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{5CDBC979-3178-4442-B5D8-E1BF7630F7AA}"/>
+    <hyperlink ref="B21" r:id="rId5" xr:uid="{A58DAFDD-81CA-460E-9C71-BF0FDC9B9F8C}"/>
+    <hyperlink ref="B22" r:id="rId6" xr:uid="{B1D30D4E-3705-4956-8C01-0358A83B4BF5}"/>
+    <hyperlink ref="B24" r:id="rId7" xr:uid="{80BE4FE6-6BE4-4839-80A2-F71EB4F403CB}"/>
+    <hyperlink ref="B25" r:id="rId8" xr:uid="{E615F2F3-E51F-4339-8932-0AB2F767C155}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{E54A6427-854C-4591-AD00-99E0F8D3EFFF}"/>
+    <hyperlink ref="B28" r:id="rId10" xr:uid="{91EE9F52-85DD-4816-BF1E-C97738067EE2}"/>
+    <hyperlink ref="B29" r:id="rId11" xr:uid="{00D678EC-AAD0-4BDF-AF93-6C22ED078857}"/>
+    <hyperlink ref="B30" r:id="rId12" xr:uid="{7363E186-B253-4381-A80E-86C604F04EBB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>